--- a/excelTest2.xlsx
+++ b/excelTest2.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>이메일</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Fay</t>
   </si>
@@ -251,7 +242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0##\-####\-####"/>
+    <numFmt numFmtId="176" formatCode="0##\-####\-####"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -329,8 +320,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
@@ -647,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,422 +778,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4">
+        <v>1098653201</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>1098653201</v>
+        <v>1122580902</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>1122580902</v>
+        <v>1032659803</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1065478904</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1032659803</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1065478904</v>
+        <v>1098653205</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>1098653205</v>
+        <v>1021548706</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1021548706</v>
+        <v>1087542107</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1087542107</v>
+        <v>1054872108</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>1054872108</v>
+        <v>1098876509</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>1098876509</v>
+        <v>1065219810</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>1065219810</v>
+        <v>1098875411</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>1098875411</v>
+        <v>1095126512</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>1095126512</v>
+        <v>1098745613</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>1098745613</v>
+        <v>1098742514</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>1098742514</v>
+        <v>1095278615</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>1095278615</v>
+        <v>1095287416</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>1095287416</v>
+        <v>1098523617</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>1098523617</v>
+        <v>1095236518</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>1095236518</v>
+        <v>1099522519</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>1099522519</v>
+        <v>1095872120</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>1095872120</v>
+        <v>1023651421</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>1023651421</v>
+        <v>1032014522</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>1032014522</v>
+        <v>1095200123</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>1095200123</v>
+        <v>1095230124</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>1095230124</v>
+        <v>1095513225</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>1095513225</v>
+        <v>1087543226</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>1087543226</v>
+        <v>1087542127</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>1087542127</v>
+        <v>1098653228</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>1098653228</v>
+        <v>1098542129</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>1098542129</v>
+        <v>1085253630</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>1085253630</v>
+        <v>1033809031</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>1033809031</v>
+        <v>1023659832</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>1023659832</v>
+        <v>1095628433</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>1095628433</v>
+        <v>1051956234</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>1051956234</v>
+        <v>1065329835</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>1065329835</v>
+        <v>1087543236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>1087543236</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1"/>
-    <hyperlink ref="C33" r:id="rId2"/>
-    <hyperlink ref="C34" r:id="rId3"/>
-    <hyperlink ref="C35" r:id="rId4"/>
-    <hyperlink ref="C36" r:id="rId5"/>
-    <hyperlink ref="C37" r:id="rId6"/>
+    <hyperlink ref="C31" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId2"/>
+    <hyperlink ref="C33" r:id="rId3"/>
+    <hyperlink ref="C34" r:id="rId4"/>
+    <hyperlink ref="C35" r:id="rId5"/>
+    <hyperlink ref="C36" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
